--- a/db/用户账号上传.xlsx
+++ b/db/用户账号上传.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -111,27 +111,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -141,6 +120,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,7 +156,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,9 +208,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,7 +241,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,60 +249,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +264,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +366,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,157 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,11 +482,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +513,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,15 +555,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,14 +1040,14 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.625"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="16.7416666666667" customWidth="1"/>
+    <col min="5" max="5" width="37.9333333333333" customWidth="1"/>
     <col min="6" max="6" width="10.5416666666667" customWidth="1"/>
     <col min="7" max="8" width="16.5" customWidth="1"/>
     <col min="15" max="15" width="32.125" customWidth="1"/>

--- a/db/用户账号上传.xlsx
+++ b/db/用户账号上传.xlsx
@@ -76,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -111,6 +111,64 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -120,6 +178,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -127,58 +193,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,6 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -224,32 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,127 +264,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,43 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,6 +463,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,15 +523,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -522,21 +537,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,159 +563,162 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1040,7 +1043,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1067,131 +1070,131 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2">
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="2">
         <v>13800138000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>1111111</v>
       </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3">
+    <row r="3" s="2" customFormat="1" spans="1:15">
+      <c r="A3" s="2">
         <v>10086</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2222</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
         <v>0</v>
       </c>
     </row>

--- a/db/用户账号上传.xlsx
+++ b/db/用户账号上传.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140"/>
+    <workbookView windowWidth="28695" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>账号</t>
   </si>
@@ -61,6 +61,9 @@
     <t>金融市场基础知识</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>张三</t>
   </si>
   <si>
@@ -68,6 +71,120 @@
   </si>
   <si>
     <t>李四</t>
+  </si>
+  <si>
+    <t>李玉强</t>
+  </si>
+  <si>
+    <t>520113197301010810</t>
+  </si>
+  <si>
+    <t>韩旭</t>
+  </si>
+  <si>
+    <t>110104198904082022</t>
+  </si>
+  <si>
+    <t>李莉</t>
+  </si>
+  <si>
+    <t>420115198407110522</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>李靖</t>
+  </si>
+  <si>
+    <t>卢正鸿</t>
+  </si>
+  <si>
+    <t>533525197708050023</t>
+  </si>
+  <si>
+    <t>李慧</t>
+  </si>
+  <si>
+    <t>110106197112102169</t>
+  </si>
+  <si>
+    <t>陈姣姣</t>
+  </si>
+  <si>
+    <t>431021199012030682</t>
+  </si>
+  <si>
+    <t>王晓倩</t>
+  </si>
+  <si>
+    <t>441802198011120266</t>
+  </si>
+  <si>
+    <t>段丹丹</t>
+  </si>
+  <si>
+    <t>412725199009238664</t>
+  </si>
+  <si>
+    <t>946066</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>李明</t>
+  </si>
+  <si>
+    <t>320981198401280225</t>
+  </si>
+  <si>
+    <t>415251</t>
+  </si>
+  <si>
+    <t>周元春</t>
+  </si>
+  <si>
+    <t>320981198302134249</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>664365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">邓嘉静 </t>
+  </si>
+  <si>
+    <t>440682198812303687</t>
+  </si>
+  <si>
+    <t>615888</t>
+  </si>
+  <si>
+    <t>欧艳</t>
+  </si>
+  <si>
+    <t>43292419820804014X</t>
+  </si>
+  <si>
+    <t>681501</t>
+  </si>
+  <si>
+    <t>王苗苗</t>
+  </si>
+  <si>
+    <t>612732198901190042</t>
+  </si>
+  <si>
+    <t>18653233873</t>
+  </si>
+  <si>
+    <t>赵慧</t>
+  </si>
+  <si>
+    <t>370285198410250067</t>
   </si>
 </sst>
 </file>
@@ -75,12 +192,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +228,59 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF399BFF"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -118,8 +288,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,21 +358,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,93 +388,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,187 +404,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2FAFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,8 +606,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -470,23 +618,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,26 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -555,6 +668,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -563,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,16 +721,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,133 +739,151 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1040,21 +1204,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="37.9333333333333" customWidth="1"/>
-    <col min="6" max="6" width="10.5416666666667" customWidth="1"/>
-    <col min="7" max="8" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="32.125" customWidth="1"/>
-    <col min="16" max="16" width="2.375" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="2"/>
+    <col min="2" max="2" width="14.0166666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="22.0583333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.99166666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5416666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.99166666666667" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.88333333333333" style="2" customWidth="1"/>
+    <col min="9" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="7.925" style="2" customWidth="1"/>
+    <col min="16" max="16" width="2.375" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="25.5" spans="1:15">
@@ -1104,68 +1275,56 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="2">
+    <row r="2" spans="5:15">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2">
         <v>13800138000</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="2">
         <v>123</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
         <v>1111111</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:15">
-      <c r="A3" s="2">
-        <v>10086</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2222</v>
-      </c>
       <c r="E3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -1174,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1195,6 +1354,755 @@
         <v>0</v>
       </c>
       <c r="O3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2">
+        <v>10086</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2222</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2">
+        <v>16110551</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
+        <v>81369</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40129406</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:15">
+      <c r="A7" s="2">
+        <v>317675</v>
+      </c>
+      <c r="B7" s="2">
+        <v>51637999</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="2">
+        <v>442996</v>
+      </c>
+      <c r="B9" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2">
+        <v>383638</v>
+      </c>
+      <c r="B10" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:15">
+      <c r="A11" s="2">
+        <v>137225</v>
+      </c>
+      <c r="B11" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="2">
+        <v>682829</v>
+      </c>
+      <c r="B12" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>500339</v>
+      </c>
+      <c r="B13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:15">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:15">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:15">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:15">
+      <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>0</v>
       </c>
     </row>

--- a/db/用户账号上传.xlsx
+++ b/db/用户账号上传.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>账号</t>
   </si>
@@ -61,16 +61,28 @@
     <t>金融市场基础知识</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>张三</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>李四</t>
+    <t>jxzhang</t>
+  </si>
+  <si>
+    <t>123123</t>
+  </si>
+  <si>
+    <t>景星</t>
+  </si>
+  <si>
+    <t>kaili</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>海玲</t>
+  </si>
+  <si>
+    <t>2222222</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>李玉强</t>
@@ -130,9 +142,6 @@
     <t>946066</t>
   </si>
   <si>
-    <t>123456</t>
-  </si>
-  <si>
     <t>李明</t>
   </si>
   <si>
@@ -146,9 +155,6 @@
   </si>
   <si>
     <t>320981198302134249</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t>664365</t>
@@ -193,9 +199,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -251,6 +257,57 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,10 +316,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -275,60 +365,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,58 +387,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -410,49 +416,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,73 +554,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,55 +596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,26 +607,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,21 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -674,6 +645,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -721,133 +727,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,12 +1210,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1275,21 +1281,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="5:15">
-      <c r="E2" s="2">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1111111</v>
+      </c>
+      <c r="E2" s="4">
         <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1311,29 +1329,29 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2">
-        <v>13800138000</v>
-      </c>
-      <c r="B3" s="2">
-        <v>123</v>
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1111111</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1359,25 +1377,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>10086</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16110551</v>
+      </c>
+      <c r="B4" s="2">
+        <v>123456</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2222</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1406,120 +1424,117 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
-        <v>16110551</v>
+        <v>81369</v>
       </c>
       <c r="B5" s="2">
+        <v>40129406</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:15">
+      <c r="A6" s="2">
+        <v>317675</v>
+      </c>
+      <c r="B6" s="2">
+        <v>51637999</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
         <v>123456</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="2">
-        <v>81369</v>
-      </c>
-      <c r="B6" s="2">
-        <v>40129406</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:15">
-      <c r="A7" s="2">
-        <v>317675</v>
-      </c>
-      <c r="B7" s="2">
-        <v>51637999</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
@@ -1539,30 +1554,33 @@
         <v>0</v>
       </c>
       <c r="N7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>25</v>
+      <c r="A8" s="2">
+        <v>442996</v>
       </c>
       <c r="B8" s="2">
         <v>123456</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1591,32 +1609,32 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>442996</v>
+        <v>383638</v>
       </c>
       <c r="B9" s="2">
         <v>123456</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
@@ -1636,24 +1654,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" ht="14.25" spans="1:15">
       <c r="A10" s="2">
-        <v>383638</v>
+        <v>137225</v>
       </c>
       <c r="B10" s="2">
         <v>123456</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>29</v>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -1662,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
         <v>0</v>
@@ -1683,21 +1701,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
-        <v>137225</v>
+        <v>682829</v>
       </c>
       <c r="B11" s="2">
         <v>123456</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>31</v>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1732,19 +1750,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>682829</v>
+        <v>500339</v>
       </c>
       <c r="B12" s="2">
         <v>123456</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1756,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
         <v>0</v>
@@ -1777,24 +1795,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="2">
-        <v>500339</v>
-      </c>
-      <c r="B13" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
+    <row r="13" ht="14.25" spans="1:15">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -1803,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1826,22 +1844,22 @@
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2">
-        <v>0</v>
+      <c r="F14" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1873,22 +1891,22 @@
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
+      <c r="F15" s="2">
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1920,16 +1938,16 @@
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1949,14 +1967,14 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="2">
-        <v>0</v>
+      <c r="K16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2">
-        <v>0</v>
+      <c r="M16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1967,16 +1985,16 @@
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1990,20 +2008,20 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2">
-        <v>0</v>
+      <c r="I17" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2" t="s">
-        <v>44</v>
+      <c r="K17" s="2">
+        <v>0</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>44</v>
+      <c r="M17" s="2">
+        <v>0</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -2014,16 +2032,16 @@
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -2038,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="J18" s="2">
         <v>0</v>
@@ -2056,53 +2074,6 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.25" spans="1:15">
-      <c r="A19" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
         <v>0</v>
       </c>
     </row>

--- a/db/用户账号上传.xlsx
+++ b/db/用户账号上传.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>账号</t>
   </si>
@@ -61,100 +61,94 @@
     <t>金融市场基础知识</t>
   </si>
   <si>
-    <t>jxzhang</t>
-  </si>
-  <si>
-    <t>123123</t>
-  </si>
-  <si>
-    <t>景星</t>
-  </si>
-  <si>
-    <t>kaili</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>张三</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>李四</t>
+  </si>
+  <si>
+    <t>李玉强</t>
+  </si>
+  <si>
+    <t>520113197301010810</t>
+  </si>
+  <si>
+    <t>韩旭</t>
+  </si>
+  <si>
+    <t>110104198904082022</t>
+  </si>
+  <si>
+    <t>李莉</t>
+  </si>
+  <si>
+    <t>420115198407110522</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>李靖</t>
+  </si>
+  <si>
+    <t>卢正鸿</t>
+  </si>
+  <si>
+    <t>533525197708050023</t>
+  </si>
+  <si>
+    <t>李慧</t>
+  </si>
+  <si>
+    <t>110106197112102169</t>
+  </si>
+  <si>
+    <t>陈姣姣</t>
+  </si>
+  <si>
+    <t>431021199012030682</t>
+  </si>
+  <si>
+    <t>王晓倩</t>
+  </si>
+  <si>
+    <t>441802198011120266</t>
+  </si>
+  <si>
+    <t>段丹丹</t>
+  </si>
+  <si>
+    <t>412725199009238664</t>
+  </si>
+  <si>
+    <t>946066</t>
   </si>
   <si>
     <t>123456</t>
   </si>
   <si>
-    <t>海玲</t>
-  </si>
-  <si>
-    <t>2222222</t>
+    <t>李明</t>
+  </si>
+  <si>
+    <t>320981198401280225</t>
+  </si>
+  <si>
+    <t>415251</t>
+  </si>
+  <si>
+    <t>周元春</t>
+  </si>
+  <si>
+    <t>320981198302134249</t>
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>李玉强</t>
-  </si>
-  <si>
-    <t>520113197301010810</t>
-  </si>
-  <si>
-    <t>韩旭</t>
-  </si>
-  <si>
-    <t>110104198904082022</t>
-  </si>
-  <si>
-    <t>李莉</t>
-  </si>
-  <si>
-    <t>420115198407110522</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>李靖</t>
-  </si>
-  <si>
-    <t>卢正鸿</t>
-  </si>
-  <si>
-    <t>533525197708050023</t>
-  </si>
-  <si>
-    <t>李慧</t>
-  </si>
-  <si>
-    <t>110106197112102169</t>
-  </si>
-  <si>
-    <t>陈姣姣</t>
-  </si>
-  <si>
-    <t>431021199012030682</t>
-  </si>
-  <si>
-    <t>王晓倩</t>
-  </si>
-  <si>
-    <t>441802198011120266</t>
-  </si>
-  <si>
-    <t>段丹丹</t>
-  </si>
-  <si>
-    <t>412725199009238664</t>
-  </si>
-  <si>
-    <t>946066</t>
-  </si>
-  <si>
-    <t>李明</t>
-  </si>
-  <si>
-    <t>320981198401280225</t>
-  </si>
-  <si>
-    <t>415251</t>
-  </si>
-  <si>
-    <t>周元春</t>
-  </si>
-  <si>
-    <t>320981198302134249</t>
   </si>
   <si>
     <t>664365</t>
@@ -199,9 +193,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -257,8 +251,31 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,7 +304,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,21 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -332,6 +334,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -349,57 +381,19 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -416,25 +410,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,157 +578,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +601,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -621,6 +635,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -645,41 +674,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,10 +709,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -727,133 +721,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,12 +1204,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1281,33 +1275,21 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="5:15">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1111111</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
@@ -1329,29 +1311,29 @@
       </c>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
+      <c r="A3" s="2">
+        <v>13800138000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1111111</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1377,25 +1359,25 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2">
-        <v>16110551</v>
-      </c>
-      <c r="B4" s="2">
-        <v>123456</v>
+        <v>10086</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2222</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -1424,163 +1406,163 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2">
+        <v>16110551</v>
+      </c>
+      <c r="B5" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2">
         <v>81369</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="2">
         <v>40129406</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2">
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:15">
-      <c r="A6" s="2">
+    <row r="7" ht="14.25" spans="1:15">
+      <c r="A7" s="2">
         <v>317675</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="2">
         <v>51637999</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
         <v>1</v>
-      </c>
-      <c r="O6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
       </c>
       <c r="O7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="2">
-        <v>442996</v>
+      <c r="A8" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="2">
         <v>123456</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
         <v>1</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1609,22 +1591,22 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2">
-        <v>383638</v>
+        <v>442996</v>
       </c>
       <c r="B9" s="2">
         <v>123456</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1633,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1654,34 +1636,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
-        <v>137225</v>
+        <v>383638</v>
       </c>
       <c r="B10" s="2">
         <v>123456</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
+      <c r="C10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
       <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
       <c r="J10" s="2">
         <v>0</v>
       </c>
@@ -1701,21 +1683,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" ht="14.25" spans="1:15">
       <c r="A11" s="2">
-        <v>682829</v>
+        <v>137225</v>
       </c>
       <c r="B11" s="2">
         <v>123456</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>37</v>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1750,19 +1732,19 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2">
-        <v>500339</v>
+        <v>682829</v>
       </c>
       <c r="B12" s="2">
         <v>123456</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1774,46 +1756,46 @@
         <v>0</v>
       </c>
       <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="2">
+        <v>500339</v>
+      </c>
+      <c r="B13" s="2">
+        <v>123456</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
       <c r="G13" s="2">
         <v>0</v>
       </c>
@@ -1821,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="2">
         <v>0</v>
@@ -1844,22 +1826,22 @@
     </row>
     <row r="14" ht="14.25" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
+      <c r="F14" s="2">
+        <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1891,22 +1873,22 @@
     </row>
     <row r="15" ht="14.25" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>0</v>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -1938,16 +1920,16 @@
     </row>
     <row r="16" ht="14.25" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1967,14 +1949,14 @@
       <c r="J16" s="2">
         <v>0</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>22</v>
+      <c r="K16" s="2">
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>22</v>
+      <c r="M16" s="2">
+        <v>0</v>
       </c>
       <c r="N16" s="2">
         <v>0</v>
@@ -1985,16 +1967,16 @@
     </row>
     <row r="17" ht="14.25" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -2008,20 +1990,20 @@
       <c r="H17" s="2">
         <v>0</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>22</v>
+      <c r="I17" s="2">
+        <v>0</v>
       </c>
       <c r="J17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="2">
-        <v>0</v>
+      <c r="K17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
+      <c r="M17" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="N17" s="2">
         <v>0</v>
@@ -2032,48 +2014,95 @@
     </row>
     <row r="18" ht="14.25" spans="1:15">
       <c r="A18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" spans="1:15">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
         <v>0</v>
       </c>
     </row>
